--- a/14_BTMS_Liqiud_Cooling/AIAA_Aviation_2024/Simulation_Plan.xlsx
+++ b/14_BTMS_Liqiud_Cooling/AIAA_Aviation_2024/Simulation_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai/Documents/Research/RESEARCH/14_BTMS_Liqiud_Cooling/AIAA_Aviation_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C859E19D-EB30-9F4E-848C-01C3FF1FD64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F64CEF-FBE9-CB40-AA9B-6F1DBF4CEB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40500" yWindow="2320" windowWidth="27640" windowHeight="16940" xr2:uid="{E396564E-88E3-F442-AF58-64BAAD394395}"/>
+    <workbookView xWindow="38820" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{E396564E-88E3-F442-AF58-64BAAD394395}"/>
   </bookViews>
   <sheets>
     <sheet name="ORD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Cruise_Distance</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
   <si>
     <t>Flight_No</t>
@@ -203,13 +215,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6097D4D-9761-8C48-9F3E-659D7A72A7A1}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,62 +585,62 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -645,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -705,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -765,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -827,7 +842,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>25</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -845,7 +860,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>25</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -863,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -881,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -899,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -917,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -935,292 +950,719 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2">
-        <v>32.5</v>
-      </c>
-      <c r="F32" s="2">
-        <v>24</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S32" s="2">
-        <v>1</v>
-      </c>
-      <c r="T32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2">
         <v>2</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>30</v>
-      </c>
-      <c r="E33" s="2">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2">
-        <v>24</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S33" s="2">
-        <v>1</v>
-      </c>
-      <c r="T33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>30</v>
-      </c>
-      <c r="E34" s="2">
-        <v>28</v>
-      </c>
-      <c r="F34" s="2">
-        <v>24</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S34" s="2">
-        <v>1</v>
-      </c>
-      <c r="T34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A32:A34"/>
+  <mergeCells count="10">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A30"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
